--- a/TinyLoRa-Module/TLM-v1.1/FabricationFiles/TLM01-v1-BOM.xlsx
+++ b/TinyLoRa-Module/TLM-v1.1/FabricationFiles/TLM01-v1-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orkhan/Dropbox/FILE_EXCHANGE/PCB_Projects/KiCAD/TinyLoraModule/TLM-v1/FabricationFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud-Drives\Dropbox\FILE_EXCHANGE\PCB_Projects\KiCAD\TinyLoraModule\TLM-v1\FabricationFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0B8CE-A366-8E4D-BDCA-B6EA07044DB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246BACD-0999-42FD-B396-5D7A6EB6230F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="440" windowWidth="28140" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="435" windowWidth="28140" windowHeight="17565" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TLM01-v1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -57,9 +56,6 @@
     <t>Qnty</t>
   </si>
   <si>
-    <t>Mfg Part #</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -415,6 +411,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 32MHz TCXO Clipped Sine Wave Oscillator 2.8V ~ 3.3V 4-SMD, No Lead </t>
+  </si>
+  <si>
+    <t>MPN</t>
   </si>
 </sst>
 </file>
@@ -922,50 +921,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="56" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" customWidth="1"/>
-    <col min="11" max="1022" width="11.5"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="1022" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -977,7 +976,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
@@ -987,7 +986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -998,712 +997,712 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="1"/>
     </row>
   </sheetData>

--- a/TinyLoRa-Module/TLM-v1.1/FabricationFiles/TLM01-v1-BOM.xlsx
+++ b/TinyLoRa-Module/TLM-v1.1/FabricationFiles/TLM01-v1-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud-Drives\Dropbox\FILE_EXCHANGE\PCB_Projects\KiCAD\TinyLoraModule\TLM-v1\FabricationFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orkhan/Google Drive/FILE_EXCHANGE/PCB_Projects/KiCAD/TinyLoraModule/TLM-v1/FabricationFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246BACD-0999-42FD-B396-5D7A6EB6230F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A72D5-4C7B-9147-B8AF-EEE738E8A5DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="435" windowWidth="28140" windowHeight="17565" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="440" windowWidth="28140" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TLM01-v1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>Name:</t>
   </si>
@@ -281,18 +282,9 @@
     <t>https://www.mouser.de/ProductDetail/81-GRM0335C1H3R9BA1D</t>
   </si>
   <si>
-    <t xml:space="preserve"> 	GJM0335C1E3R3BB01E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	GRM0335C1H180GA01D</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/81-GJM0335C1E3R3BB1E</t>
   </si>
   <si>
-    <t xml:space="preserve"> 	GRM0335C1E5R6BA01D</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/81-GRM0335C1E5R6BA1D</t>
   </si>
   <si>
@@ -302,30 +294,18 @@
     <t>https://www.mouser.de/ProductDetail/609-250R05L470GV4T</t>
   </si>
   <si>
-    <t xml:space="preserve"> 	250R05L470GV4T</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	GJM0335C1E2R7BB01E</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/81-GJM0335C1E2R7BB1E</t>
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/81-GRM033R71A472KA1D</t>
   </si>
   <si>
-    <t xml:space="preserve"> 	02013A220GAT2A</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/581-02013A220GAT2A</t>
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/609-250R05L8R2CV4T</t>
   </si>
   <si>
-    <t xml:space="preserve"> 	GRM033R71C102KA01J</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/81-GRM033R71C102KA1J</t>
   </si>
   <si>
@@ -356,9 +336,6 @@
     <t>LQP03TQ11NH02D</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/81-LQP03TQ11NH02D</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/Murata-Electronics/GRM155R60J106ME15D?qs=sGAEpiMZZMs0AnBnWHyRQO9VYadaKTO%252bnD0zGrrXm4bXD1spr3FPjg%3d%3d</t>
   </si>
   <si>
@@ -380,21 +357,12 @@
     <t>https://www.mouser.de/ProductDetail/Murata-Electronics/BLM15AG121SN1D?qs=%2fha2pyFaduixangPkDIH1u4T3UAwp%2foZOmE0a77ZO9WBydBd2sGZFQ%3d%3d</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/en/ATSAMR34J18B-I%2f7JX/ATSAMR34J18B-I%2f7JX-ND/9695773/?itemSeq=281654308</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/TYETBCSANF-32.000000/1664-1300-1-ND/6126610/?itemSeq=281654302</t>
   </si>
   <si>
-    <t xml:space="preserve"> ‎CL03A104KQ3NNNH‎ </t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/CL03A104KQ3NNNH/1276-6439-1-ND/5958067/?itemSeq=281654649</t>
   </si>
   <si>
-    <t>Alternate</t>
-  </si>
-  <si>
     <t xml:space="preserve"> RC0201JR-07100KL </t>
   </si>
   <si>
@@ -414,13 +382,49 @@
   </si>
   <si>
     <t>MPN</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Microchip-Technology/ATSAMR34J18BT-I-7JX?qs=sGAEpiMZZMuReUCzg6bfTAYlATJbN4OcbGdK9mt%2FhVv0faxddrjjDw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Murata-Electronics/LQP03TQ11NJ02D?qs=%2Fha2pyFaduhOF2zFO90kcMSrrTHqTn63zO%2FjUyjEfukhqlWpVeDd2Q%3D%3D</t>
+  </si>
+  <si>
+    <t>LQP03TQ11NJ02D</t>
+  </si>
+  <si>
+    <t>Change to This</t>
+  </si>
+  <si>
+    <t>GRM0335C1H180GA01D</t>
+  </si>
+  <si>
+    <t>GJM0335C1E3R3BB01E</t>
+  </si>
+  <si>
+    <t>GRM0335C1E5R6BA01D</t>
+  </si>
+  <si>
+    <t>250R05L470GV4T</t>
+  </si>
+  <si>
+    <t>GJM0335C1E2R7BB01E</t>
+  </si>
+  <si>
+    <t>02013A220GAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎CL03A104KQ3NNNH‎ </t>
+  </si>
+  <si>
+    <t>GRM033R71C102KA01J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -448,6 +452,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -483,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +543,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -921,42 +933,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="56" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="1022" width="11.42578125"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="1022" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -964,11 +976,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3">
         <f>SUM(C7:C54)</f>
         <v>48</v>
@@ -976,17 +988,17 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3">
         <f>COUNT(C7:C165)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>120</v>
@@ -1016,7 +1028,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1026,7 +1038,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1039,10 +1051,10 @@
         <v>12</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -1052,7 +1064,7 @@
       <c r="C8" s="14">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="14"/>
@@ -1067,7 +1079,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1077,8 +1089,8 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>84</v>
+      <c r="D9" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>54</v>
@@ -1090,10 +1102,10 @@
         <v>12</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1103,7 +1115,7 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -1119,7 +1131,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1129,8 +1141,8 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>83</v>
+      <c r="D11" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>56</v>
@@ -1142,10 +1154,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1155,8 +1167,8 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>86</v>
+      <c r="D12" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>57</v>
@@ -1168,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1181,8 +1193,8 @@
       <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>90</v>
+      <c r="D13" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="11" t="s">
@@ -1195,10 +1207,10 @@
         <v>12</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1208,8 +1220,8 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>91</v>
+      <c r="D14" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>59</v>
@@ -1221,10 +1233,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1234,7 +1246,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1247,10 +1259,10 @@
         <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1260,8 +1272,8 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>94</v>
+      <c r="D16" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>61</v>
@@ -1273,10 +1285,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1286,8 +1298,8 @@
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
-        <v>118</v>
+      <c r="D17" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>62</v>
@@ -1299,10 +1311,10 @@
         <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1312,7 +1324,7 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -1325,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1351,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1364,8 +1376,8 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>97</v>
+      <c r="D20" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>65</v>
@@ -1377,10 +1389,10 @@
         <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1390,11 +1402,11 @@
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
         <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>66</v>
@@ -1406,10 +1418,10 @@
         <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1419,8 +1431,8 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>113</v>
+      <c r="D22" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>67</v>
@@ -1432,10 +1444,10 @@
         <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1445,11 +1457,11 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>76</v>
@@ -1458,10 +1470,10 @@
         <v>12</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1471,7 +1483,7 @@
       <c r="C24" s="10">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1"/>
@@ -1485,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1498,7 +1510,7 @@
       <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -1511,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1524,7 +1536,7 @@
       <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -1537,10 +1549,10 @@
         <v>12</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1550,8 +1562,11 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>107</v>
+      <c r="D27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>71</v>
@@ -1562,11 +1577,11 @@
       <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1576,11 +1591,11 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>103</v>
+      <c r="D28" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>72</v>
@@ -1592,10 +1607,10 @@
         <v>12</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -1605,7 +1620,7 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -1617,11 +1632,11 @@
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1631,7 +1646,7 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -1643,11 +1658,11 @@
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1657,14 +1672,14 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>79</v>
@@ -1673,10 +1688,10 @@
         <v>12</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1686,7 +1701,7 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -1699,10 +1714,10 @@
         <v>12</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="1"/>
     </row>
   </sheetData>
@@ -1713,11 +1728,13 @@
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" xr:uid="{74DA5552-13F1-F944-B928-E117F996AC95}"/>
     <hyperlink ref="I24" r:id="rId2" xr:uid="{2BAB2DB1-4D86-3C42-902A-52DC0E62A526}"/>
-    <hyperlink ref="I28" r:id="rId3" xr:uid="{B1887BB5-2AAA-C046-AA1B-240FC5A85394}"/>
-    <hyperlink ref="I32" r:id="rId4" xr:uid="{7E11C3BB-6692-DA48-A3C5-F9847B0945B9}"/>
-    <hyperlink ref="I31" r:id="rId5" xr:uid="{1DC935E9-75C0-EC4F-A7E6-42952EC75932}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{1FF19F59-868F-5A42-A8E8-75E8F5DF571C}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{284E4EA4-8F23-1A48-BE0D-FBCAE0EC4D8A}"/>
+    <hyperlink ref="I32" r:id="rId3" xr:uid="{7E11C3BB-6692-DA48-A3C5-F9847B0945B9}"/>
+    <hyperlink ref="I31" r:id="rId4" xr:uid="{1DC935E9-75C0-EC4F-A7E6-42952EC75932}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{1FF19F59-868F-5A42-A8E8-75E8F5DF571C}"/>
+    <hyperlink ref="I9" r:id="rId6" xr:uid="{284E4EA4-8F23-1A48-BE0D-FBCAE0EC4D8A}"/>
+    <hyperlink ref="I29" r:id="rId7" xr:uid="{342A7751-6F23-D843-B0F2-9036F407A36E}"/>
+    <hyperlink ref="I30" r:id="rId8" xr:uid="{3ED5F76C-5097-6E4F-870C-CDE841F808BA}"/>
+    <hyperlink ref="I28" r:id="rId9" xr:uid="{B1887BB5-2AAA-C046-AA1B-240FC5A85394}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="8" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
